--- a/LZX CASTLE.xlsx
+++ b/LZX CASTLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LZX\LZX CASTLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573CEF01-4299-4992-9D94-F2D7E90E84E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE27EAC-0D5E-40A2-8454-B7BD0347CEEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{52A28D64-4030-425C-98FB-28687A3D5DE2}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     <sheet name="110 Counter" sheetId="7" r:id="rId7"/>
     <sheet name="111 D Flip Flop" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'011 Shift Register'!$A$1:$L$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'111 D Flip Flop'!$A$1:$L$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="304">
   <si>
     <t>Line Item</t>
   </si>
@@ -928,13 +932,37 @@
   </si>
   <si>
     <t>LZX Industries Castle 111 D Flip Flops Frontpanel</t>
+  </si>
+  <si>
+    <t>000 ADC</t>
+  </si>
+  <si>
+    <t>001 DAC</t>
+  </si>
+  <si>
+    <t>011 Shift Register</t>
+  </si>
+  <si>
+    <t>010 Clock VCO</t>
+  </si>
+  <si>
+    <t>111 D Flip Flop</t>
+  </si>
+  <si>
+    <t>110 Counter</t>
+  </si>
+  <si>
+    <t>101 Quad Gate</t>
+  </si>
+  <si>
+    <t>100 Multi Gate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,6 +979,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1033,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1054,6 +1089,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1368,10 +1404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CCEADB-D7F3-4F4C-BCAB-31C18ED99ABC}">
-  <dimension ref="A1:L22"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,109 +1427,76 @@
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1504,34 +1510,34 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>19</v>
@@ -1542,34 +1548,34 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>19</v>
@@ -1580,34 +1586,34 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2743001111</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
@@ -1618,28 +1624,28 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2743001111</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1651,33 +1657,33 @@
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1689,36 +1695,36 @@
         <v>19</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -1732,31 +1738,31 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="1">
-        <v>499</v>
+        <v>58</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1770,31 +1776,31 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="I11" s="1">
+        <v>499</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -1808,31 +1814,31 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1846,31 +1852,31 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1884,31 +1890,31 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1922,31 +1928,31 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1960,31 +1966,31 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -1993,77 +1999,77 @@
         <v>19</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>19</v>
@@ -2074,32 +2080,34 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>19</v>
@@ -2110,32 +2118,32 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>19</v>
@@ -2146,45 +2154,43 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
+      <c r="C21" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -2196,16 +2202,16 @@
         <v>114</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -2220,18 +2226,59 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBF4FBA-2953-414E-9126-3B0B71BE7F07}">
-  <dimension ref="A1:L14"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F14"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,109 +2293,76 @@
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2362,34 +2376,34 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>19</v>
@@ -2400,34 +2414,34 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2743001111</v>
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>19</v>
@@ -2438,28 +2452,28 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2743001111</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -2471,33 +2485,33 @@
         <v>19</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>51</v>
+        <v>122</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -2509,36 +2523,36 @@
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>123</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
       </c>
       <c r="J8" s="1">
         <v>0</v>
@@ -2552,31 +2566,31 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="1">
-        <v>499</v>
+        <v>77</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -2590,31 +2604,31 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="I10" s="1">
+        <v>499</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -2628,31 +2642,31 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -2666,34 +2680,34 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>19</v>
@@ -2704,45 +2718,45 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1">
-        <v>0</v>
+      <c r="C13" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="1">
-        <v>0</v>
+      <c r="J13" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2754,16 +2768,16 @@
         <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -2778,17 +2792,59 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E4054-E3E8-4911-9945-F3AE9326D2BE}">
-  <dimension ref="A1:L28"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F28"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,109 +2860,76 @@
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2920,30 +2943,32 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="1">
         <v>0</v>
       </c>
@@ -2956,32 +2981,30 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>145</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="1">
         <v>0</v>
       </c>
@@ -2994,31 +3017,31 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -3032,34 +3055,34 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>149</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>19</v>
@@ -3070,34 +3093,34 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>19</v>
@@ -3108,34 +3131,34 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2743001111</v>
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>19</v>
@@ -3146,28 +3169,28 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>2743001111</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -3184,28 +3207,28 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>155</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -3217,77 +3240,77 @@
         <v>19</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>104</v>
+      <c r="J12" s="1">
+        <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>19</v>
@@ -3298,31 +3321,31 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="1">
-        <v>499</v>
+        <v>82</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -3336,31 +3359,31 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="I15" s="1">
+        <v>499</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -3374,31 +3397,31 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -3412,31 +3435,31 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -3450,31 +3473,31 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -3488,31 +3511,31 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -3526,31 +3549,31 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -3564,31 +3587,31 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>46</v>
+        <v>172</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3597,36 +3620,36 @@
         <v>19</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>15</v>
+        <v>178</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -3640,28 +3663,28 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -3678,72 +3701,72 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>104</v>
+      <c r="J24" s="1">
+        <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>19</v>
@@ -3754,34 +3777,34 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>19</v>
@@ -3792,45 +3815,45 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
       </c>
-      <c r="J27" s="1">
-        <v>0</v>
+      <c r="J27" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -3842,16 +3865,16 @@
         <v>114</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -3866,17 +3889,59 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF3FCB9-7A96-4AA6-B431-9679EB0CC1E1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F18"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3891,109 +3956,76 @@
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -4007,34 +4039,34 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>19</v>
@@ -4045,34 +4077,34 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>19</v>
@@ -4083,34 +4115,34 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2743001111</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
@@ -4121,28 +4153,28 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2743001111</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -4154,33 +4186,33 @@
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>200</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -4192,36 +4224,36 @@
         <v>19</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -4235,31 +4267,31 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="I10" s="1">
+        <v>499</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -4273,31 +4305,31 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -4311,31 +4343,31 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -4349,31 +4381,31 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -4387,34 +4419,34 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>19</v>
@@ -4425,34 +4457,34 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>19</v>
@@ -4463,34 +4495,34 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>19</v>
@@ -4501,45 +4533,45 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
+      <c r="C17" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>208</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
+      <c r="J17" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -4551,16 +4583,16 @@
         <v>114</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -4576,34 +4608,58 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1">
-        <v>140</v>
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="L19" s="1">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96B4818-64F1-444C-9F05-8EAB73A94BFB}">
-  <dimension ref="A1:L19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4618,109 +4674,76 @@
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -4734,34 +4757,34 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>19</v>
@@ -4772,34 +4795,34 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>19</v>
@@ -4810,34 +4833,34 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2743001111</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
@@ -4848,28 +4871,28 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2743001111</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -4881,33 +4904,33 @@
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>218</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -4919,36 +4942,36 @@
         <v>19</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>219</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -4962,31 +4985,31 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="1">
-        <v>499</v>
+        <v>82</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -5000,31 +5023,31 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="I11" s="1">
+        <v>499</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -5038,31 +5061,31 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -5076,31 +5099,31 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -5114,34 +5137,34 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>19</v>
@@ -5152,34 +5175,34 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>19</v>
@@ -5190,34 +5213,34 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>19</v>
@@ -5228,34 +5251,34 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>19</v>
@@ -5266,45 +5289,45 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
+      <c r="C18" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>230</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
+      <c r="J18" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -5316,16 +5339,16 @@
         <v>114</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -5340,17 +5363,59 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AA1FAE-B02A-4C06-95E6-BC3F79D6A526}">
-  <dimension ref="A1:L24"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5368,109 +5433,76 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -5484,34 +5516,34 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>19</v>
@@ -5522,34 +5554,34 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>19</v>
@@ -5560,34 +5592,34 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2743001111</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
@@ -5598,28 +5630,28 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2743001111</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -5631,33 +5663,33 @@
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>240</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -5669,36 +5701,36 @@
         <v>19</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -5712,31 +5744,31 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="I10" s="1">
+        <v>499</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -5750,31 +5782,31 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -5788,31 +5820,31 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -5826,31 +5858,31 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -5864,34 +5896,34 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>19</v>
@@ -5902,34 +5934,34 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>19</v>
@@ -5940,34 +5972,34 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>19</v>
@@ -5978,34 +6010,34 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>19</v>
@@ -6016,45 +6048,45 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
+      <c r="C18" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>248</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
+      <c r="J18" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -6066,16 +6098,16 @@
         <v>114</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -6091,18 +6123,42 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -6121,9 +6177,7 @@
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -6136,39 +6190,19 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -6182,41 +6216,81 @@
         <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="1" t="s">
+      <c r="K25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE0CE96-405B-4082-98A6-4B1634F35FFC}">
-  <dimension ref="A1:L19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6235,109 +6309,76 @@
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -6351,34 +6392,34 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>19</v>
@@ -6389,34 +6430,34 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>19</v>
@@ -6427,34 +6468,34 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2743001111</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
@@ -6465,28 +6506,28 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>264</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2743001111</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -6498,33 +6539,33 @@
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>264</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -6536,36 +6577,36 @@
         <v>19</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>265</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -6579,31 +6620,31 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="I10" s="1">
+        <v>499</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -6617,31 +6658,31 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -6655,31 +6696,31 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -6693,31 +6734,31 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -6731,34 +6772,34 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>19</v>
@@ -6769,34 +6810,34 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>19</v>
@@ -6807,34 +6848,34 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>19</v>
@@ -6845,34 +6886,34 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>19</v>
@@ -6883,45 +6924,45 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
+      <c r="C18" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>273</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="J18" s="1">
-        <v>0</v>
+      <c r="J18" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -6933,16 +6974,16 @@
         <v>114</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -6957,17 +6998,59 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97EE4DB0-959F-46C5-8F20-2811716DE33E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6984,109 +7067,76 @@
     <col min="12" max="12" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -7100,34 +7150,34 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>19</v>
@@ -7138,34 +7188,34 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>19</v>
@@ -7176,34 +7226,34 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2743001111</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
@@ -7214,28 +7264,28 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2743001111</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -7247,33 +7297,33 @@
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>282</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -7285,36 +7335,36 @@
         <v>19</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
+        <v>283</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
@@ -7328,31 +7378,31 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="I10" s="1">
+        <v>499</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -7366,31 +7416,31 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1">
         <v>0</v>
@@ -7404,31 +7454,31 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -7442,31 +7492,31 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -7480,34 +7530,34 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>19</v>
@@ -7518,34 +7568,34 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>19</v>
@@ -7556,34 +7606,34 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>19</v>
@@ -7594,34 +7644,34 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>19</v>
@@ -7632,45 +7682,45 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
+      <c r="C18" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>289</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -7682,16 +7732,16 @@
         <v>114</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>114</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -7707,20 +7757,45 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="2"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>